--- a/ky/downloads/data-excel/4.1.1.1b.xlsx
+++ b/ky/downloads/data-excel/4.1.1.1b.xlsx
@@ -137,10 +137,10 @@
     <t xml:space="preserve">4.1.1.1b Уровень завершения начального образования </t>
   </si>
   <si>
-    <t>4.1.1.1b Баштапкы бүтүрүү көрсөткүчү</t>
-  </si>
-  <si>
     <t>4.1.1.1b Completion rate of primary education</t>
+  </si>
+  <si>
+    <t>4.1.1.1b Башталгыч билим берүүнү аяктоо деңгээли</t>
   </si>
 </sst>
 </file>
@@ -234,40 +234,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,11 +573,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -562,392 +584,438 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="12">
         <v>2016</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="12">
         <v>2017</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="12">
         <v>2018</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="12">
         <v>2019</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="12">
         <v>2020</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="12">
         <v>2021</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="12">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="K4" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="21">
         <v>96.5</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="21">
         <v>97.8</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="21">
         <v>99.1</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="14">
         <v>96</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="14">
         <v>96.5</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="14">
         <v>97.8</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="14">
         <v>96.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="K5" s="14">
+        <v>100.4062134821358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="17">
         <v>97.9</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="17">
         <v>99.1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="17">
         <v>96.5</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="16">
         <v>98.8</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="16">
         <v>98.5</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="16">
         <v>97.9</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="16">
         <v>96.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="K6" s="16">
+        <v>104.06287706751064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="17">
         <v>94.4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="17">
         <v>97.1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="17">
         <v>97.6</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="16">
         <v>95.1</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="16">
         <v>96.8</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="16">
         <v>96.8</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="16">
         <v>97.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="K7" s="16">
+        <v>102.93580727245744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="17">
         <v>95.8</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="17">
         <v>97.1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="17">
         <v>99.4</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="16">
         <v>91.1</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="16">
         <v>92.3</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="16">
         <v>97</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="16">
         <v>95.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="K8" s="16">
+        <v>99.942837442404183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="17">
         <v>94.9</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="17">
         <v>93.7</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="17">
         <v>95.5</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="16">
         <v>94.7</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="16">
         <v>96.6</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="16">
         <v>95.5</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="16">
         <v>93.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="K9" s="16">
+        <v>106.42286904738506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="17">
         <v>92.4</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="17">
         <v>94.8</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="17">
         <v>94.2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="17">
         <v>96.1</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="17">
         <v>96.3</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="17">
         <v>97.1</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="17">
         <v>95.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="K10" s="17">
+        <v>103.81318629146574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="17">
         <v>95.3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="17">
         <v>94.7</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="17">
         <v>95.5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="17">
         <v>95.7</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="17">
         <v>94.7</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="17">
         <v>96</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="17">
         <v>94.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="K11" s="17">
+        <v>104.42396096858288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="17">
         <v>98</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="17">
         <v>97.5</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="17">
         <v>99.4</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="17">
         <v>89</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="17">
         <v>94.7</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="17">
         <v>97.6</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="17">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="K12" s="17">
+        <v>101.98873952645914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="16">
         <v>104.91</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="16">
         <v>105.21</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="16">
         <v>110.61</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="16">
         <v>104.01</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="16">
         <v>98.8</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="16">
         <v>100</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="16">
         <v>98.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="K13" s="16">
+        <v>90.624818310428424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="20">
         <v>95.4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="20">
         <v>117.51</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="20">
         <v>106.51</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="20">
         <v>103.71</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="20">
         <v>98.8</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="20">
         <v>101</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="20">
         <v>97.3</v>
+      </c>
+      <c r="K14" s="20">
+        <v>93.159844818577312</v>
       </c>
     </row>
   </sheetData>
